--- a/pre/offers-81/fortuflex/es/es.xlsx
+++ b/pre/offers-81/fortuflex/es/es.xlsx
@@ -1150,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1243,15 +1243,16 @@
 &lt;body class="post-template-default single single-post postid-1045 single-format-standard vsc-initialized"&gt;
   &lt;div style="background-color: #262626"&gt;&lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/uol.png" Ò style="    width: 110px;          display: block;          margin: auto;          padding: 10px          "&gt;&lt;/div&gt;
   &lt;div id="page" class="container-fluid"&gt;
-    &lt;div id="header"&gt; &lt;a onclick="chamaCheckout()" href target="_blank" class="skip-link screen-reader-text" title="Pular para o conteúdo"&gt;&lt;span data-translate="2"&gt;Ir al contenido&lt;/span&gt;&lt;/a&gt;
+    &lt;div id="header"&gt; &lt;a href class="skip-link screen-reader-text" title="Pular para o conteúdo"&gt;&lt;span data-translate="2"&gt;Ir al contenido&lt;/span&gt;&lt;/a&gt;
       &lt;div class="menu-primary"&gt;
         &lt;ul id="menu-main-nav" class="menu"&gt; &lt;/ul&gt;
-      &lt;/div&gt; &lt;a id="toggle-menu" </v>
+      &lt;/div&gt; &lt;a id="toggle-menu" href class="toggle-menu"&gt;☰&lt;/a&gt; &lt;a id="logo</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">onclick="chamaCheckout()" href target="_blank" class="toggle-menu"&gt;☰&lt;/a&gt; &lt;a id="logo" onclick="chamaCheckout()" href target="_blank"&gt; &lt;img class="img-responsive" src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/logo.png" alt="Dr. Drauzio Varella"&gt; &lt;/a&gt; &lt;a onclick="chamaCheckout()" href target="_blank" class="toggle-search visible-xs-inline-block"&gt;&lt;/a&gt;
+        <v xml:space="preserve">" href&gt; 
+        &lt;/a&gt; &lt;a href class="toggle-search visible-xs-inline-block"&gt;&lt;/a&gt;
     &lt;/div&gt;
     &lt;div id="content"&gt;
       &lt;article class="post-1045 post type-post status-publish format-standard has-post-thumbnail hentry category-artigos category-drauzio category-pediatria tag-artigo tag-crianca tag-gripe tag-mito tag-resfriado tag-suplemento tag-vitamina"&gt;
@@ -1271,16 +1272,16 @@
               &lt;p&gt;&lt;b&gt;&lt;span data-translate="10"&gt;Consulte el reportaje de "Fantastic» del domingo pasado:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="11"&gt;- Tengo muchísima experiencia y puedo asegurarle de que la mayor parte de enfermedades de
                 articulaciones y hasta de huesos&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="12"&gt;se provocan por la falta de colágeno,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="13"&gt;y no de calcio o
-                magnesio, como cree la mayoría.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/v1</v>
+                magnesio, como cree la mayoría.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/v1.jpg"&gt;
+              &lt;p&gt;&lt;b&gt;&lt;span data-translate="14"&gt;- Si se trata de huesos, ¿de qué se quejan los pacientes con mayor frecuencia?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+              &lt;p&gt;&lt;span data-translate="15"&gt;- Normalmente la gente se queja de dolores de articulaciones, desde ligeros, moderados, hasta los que
+          </v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">.jpg"&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="14"&gt;- Si se trata de huesos, ¿de qué se quejan los pacientes con mayor frecuencia?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="15"&gt;- Normalmente la gente se queja de dolores de articulaciones, desde ligeros, moderados, hasta los que
-                impiden los movimientos normales. Muchos de estos pacientes llevan muchos años intentando resolver sus
-                problemas, que solo se agravan, y no encuentran nada parecido a la&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="16"&gt;Crema Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;.&lt;/p&gt;
+        <v xml:space="preserve">      impiden los movimientos normales. Muchos de estos pacientes llevan muchos años intentando resolver sus
+                problemas, que solo se agravan, y no encuentran nada parecido a la&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href&gt;&lt;span data-translate="16"&gt;Crema Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;.&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="17"&gt;Suelen usar en vano condroitina o glucosamina, pero la eficacia real radica solo en su aplicación
                 conjunta, así como la sustitución de colágeno.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/ph1.jpg"&gt;
               &lt;p&gt;&lt;span data-translate="18"&gt;En muchos casos por falta de colágeno se observan cambios degenerativos de articulaciones sin el mismo
@@ -1299,24 +1300,24 @@
                   aplicación conjunta de condroitina y glucosamina,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="24"&gt;así mismo, en proporciones correctas, para
                 regenerar los tejidos de articulaciones y, finalmente, quitar el dolor.&lt;/span&gt;&lt;/p&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/instafrex.gif"&gt;
               &lt;p&gt;&lt;span data-translate="25"&gt;El colágeno que quita los dolores de articulaciones de llama&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="26"&gt;el colágeno de II tipo&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="27"&gt;,
-                también conocido como UC-II – es el ingrediente&lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translat</v>
+                también conocido como UC-II – es el ingrediente&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="28"&gt;Principal de Fortuflex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="29"&gt;, por lo tanto, esta crema solucionará
+                todos Sus problemas.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="30"&gt;En caso de dosis diarias correctas de este tipo de colágeno, Su cuerpo se
+                recuperará de modo natural, porque en Su cuerpo habrá «material de construcción</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">e="28"&gt;Principal de Fortuflex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="29"&gt;, por lo tanto, esta crema solucionará
-                todos Sus problemas.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="30"&gt;En caso de dosis diarias correctas de este tipo de colágeno, Su cuerpo se
-                recuperará de modo natural, porque en Su cuerpo habrá «material de construcción» requerido.&lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve">» requerido.&lt;/span&gt;&lt;/p&gt;
               &lt;p&gt;&lt;b&gt;&lt;span data-translate="31"&gt;- Comente, por favor, cómo se produce la recuperación.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="32"&gt;- Normalmente la recuperación se produce de forma bastante parecida – en los pacientes que sufrían de
-                dolores fuertes y hasta de problemas del aparato locomotor, se observa una mejora notable durante&lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="33"&gt;el uso de Fortuflex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt; .&lt;br&gt;&lt;br&gt;&lt;span data-translate="34"&gt;Hasta en casos más graves, cuando el paciente ya no puede moverse sin ayuda,&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="35"&gt;ya en 7 días se
+                dolores fuertes y hasta de problemas del aparato locomotor, se observa una mejora notable durante&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="33"&gt;el uso de Fortuflex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt; .&lt;br&gt;&lt;br&gt;&lt;span data-translate="34"&gt;Hasta en casos más graves, cuando el paciente ya no puede moverse sin ayuda,&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="35"&gt;ya en 7 días se
                   puede observar mejoras notables&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="36"&gt;, los pacientes pueden realizar acciones no muy complicadas,
                 por ejemplo, ir a comprar sin ayuda.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/dores-articulares-1.jpg"&gt;
               &lt;p&gt;&lt;span data-translate="37"&gt;Y después de dos semanas del tratamiento las mejoras de notan hasta en caso de artritis muy grave, es
                 casi una recuperación completa, la gente se recupera completamente.&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="38"&gt;ya no tienen más
                   dolores&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="39"&gt;y hasta pueden dedicarse otra vez a la actividad física, lo cual, como sabemos, es
                 muy útil para la salud.&lt;/span&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="40"&gt;→ Siguiente: referencias de las personas
+              &lt;p&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="40"&gt;→ Siguiente: referencias de las personas
                     cuya vida cambió gracias a Fortuflex.&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
               &lt;p&gt;&lt;b&gt;&lt;span data-translate="41"&gt;- ¿Cómo entendió Usted que Fortuflex ayudaría a Sus pacientes?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cont2.jpg"&gt;
               &lt;p&gt;&lt;span data-translate="42"&gt;- Como sabe Usted, soy oncólogo, y la mayoría de mis pacientes son gente mayor, para muchos de ellos
@@ -1324,16 +1325,16 @@
                 recuperación.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="43"&gt;Es por eso que me dediqué al problema de dolores de articulaciones - a muchos de
                 ellos el problema les impedía caminar.&lt;/span&gt;&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="44"&gt;Como estudié nutriciología, recordé muy rápido que&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="45"&gt;Los huesos sanos necesitan colágeno de II
-                  tipo,&lt;/span&gt;&lt;/st</v>
+                  tipo,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="46"&gt;y empecé a buscar un fármaco con este colágeno. Hoy día la mejor en el mercado
+                es&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="47"&gt;La crema Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;a href&gt;&lt;/a&gt; .&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/bio-thumb.jpg"&gt;
+              &lt;p&gt;&lt;b&gt;&lt;span data-translate="48"&gt;- Suena muy esperanzador. Comente más cosas de Fortuflex.&lt;/s</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">rong&gt;&lt;span data-translate="46"&gt;y empecé a buscar un fármaco con este colágeno. Hoy día la mejor en el mercado
-                es&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="47"&gt;La crema Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;/a&gt; .&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/bio-thumb.jpg"&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="48"&gt;- Suena muy esperanzador. Comente más cosas de Fortuflex.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+        <v xml:space="preserve">pan&gt;&lt;/b&gt;&lt;/p&gt;
               &lt;div class="list"&gt;
-                &lt;p&gt;&lt;span data-translate="49"&gt;- Contaré lo que me parece más interesante, a saber, sobre los&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="50"&gt;ingredientes de Fortuflex.&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="51"&gt;Ahora entenderá porque digo que esta
+                &lt;p&gt;&lt;span data-translate="49"&gt;- Contaré lo que me parece más interesante, a saber, sobre los&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href&gt;&lt;span data-translate="50"&gt;ingredientes de Fortuflex.&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="51"&gt;Ahora entenderá porque digo que esta
                   crema es un verdadero milagro para las articulaciones, porque consiste en:&lt;/span&gt;&lt;/p&gt;
                 &lt;ul style="margin-top: 35px"&gt;
                   &lt;li&gt;&lt;span data-translate="52"&gt;extracto de esponja fresca, extracto de calcio,&lt;/span&gt;&lt;/li&gt;
@@ -1345,7 +1346,7 @@
               &lt;/div&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pilula.jpg"&gt;
               &lt;p&gt;&lt;span data-translate="57"&gt;Lamentablemente, la mayoría de estos ingredientes no se venden en España, por lo cual nuestra
                 población tiene muchos problemas de articulaciones. Para solucionar el problema, empieza a
-                usar&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="58"&gt;Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="59"&gt;y tus
+                usar&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="58"&gt;Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="59"&gt;y tus
                 articulaciones te lo agradecerán.&lt;/span&gt;&lt;/p&gt;
               &lt;div&gt;
                 &lt;p&gt;&lt;b&gt;&lt;span data-translate="60"&gt;Gracias a su fórmula única, Fortuflex es capaz de curar cualquier enfermedad de
@@ -1359,48 +1360,48 @@
                   &lt;li&gt;&lt;span data-translate="66"&gt;osteocondritis;&lt;/span&gt;&lt;/li&gt;
                   &lt;li&gt;&lt;span data-translate="67"&gt;osteoporosis;&lt;/span&gt;&lt;/li&gt;
                   &lt;li&gt;&lt;span data-translate="68"&gt;lesiones del menisco;&lt;/span&gt;&lt;/li&gt;
-                  </v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;li&gt;&lt;span data-translate="69"&gt;gonartrosis.&lt;/span&gt;&lt;/li&gt;
+                  &lt;li&gt;&lt;span data-translate="69"&gt;gonartrosis.&lt;/span&gt;&lt;/li&gt;
                 &lt;/ul&gt;
               &lt;/div&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/dores3.jpg"&gt;
               &lt;p&gt;&lt;b&gt;&lt;span data-translate="70"&gt;- ¡Es increíble! Fortuflex – ¿es un medicamento? ¿Hay riesgos de uso del mismo?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="71"&gt;- No,&lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="72"&gt;Fortuflex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="73"&gt;no es un
-                medicamento y no tiene efectos secundarios conocidos ni restricciones de uso,&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="74"&gt;su venta está
+              &lt;p&gt;&lt;span data-translate="71"&gt;- No,&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="72"&gt;Fortuflex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="73"&gt;no es un
+                medicamento y no tiene efectos secundarios conocidos ni restricciones</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str" xml:space="preserve">
+        <v xml:space="preserve"> de uso,&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="74"&gt;su venta está
                   permitida por ANVISA,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="75"&gt;es completamente seguro y muy eficaz. _x0001__x0001__x0001_&lt;/span&gt;&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="76"&gt;Como sabe Usted, soy partidario de tratamiento con medios naturales. Creo que son menos dañinos para
                 nosotros, porque son menos agresivos que los métodos «tradicionales».&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="77"&gt;Por supuesto, en algunos
                 casos solo los medicamentos ayudan, pero si es posible, recomiendo el tratamiento más natural posible,
-                por ejemplo, el uso de&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="78"&gt;Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="79"&gt;(fármaco
+                por ejemplo, el uso de&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="78"&gt;Fortuflex&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="79"&gt;(fármaco
                   natural 100%)&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="80"&gt;Para el tratamiento de dolores de articulaciones.&lt;/span&gt;&lt;/p&gt;
               &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/natureba.jpg"&gt;
               &lt;p&gt;&lt;b&gt;&lt;span data-translate="81"&gt;- ¿Dónde se puede comprar Fortuflex?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="82"&gt;- Lamentablemente, todavía no se vende en farmacias donde predominan las marcas importantes y no hay
                 mucho sitio para remedios naturales.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="83"&gt;Además, las farmacias venden sus productos por precios muy
                 altos. A veces estos fármacos tienen efectos secundarios muy importantes.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="84"&gt;Por fortuna, Usted
-                puede pedir&lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="85"&gt;la crema Fortuflex,&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="86"&gt;y
+                puede pedir&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="85"&gt;la crema Fortuflex,&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="86"&gt;y
                 en pocos días la entregarán a Su casa.&lt;/span&gt;&lt;/p&gt;
               &lt;p&gt;&lt;b&gt;&lt;span data-translate="87"&gt;Noticias perfectas para los lectores del blog del doctor Joaquin:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
               &lt;p&gt;&lt;span data-translate="88"&gt;Después de la entrevista con Joaquin Artesanos nos pusimos en contacto con el productor de Fortuflex y
-                recibimos&lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="89"&gt;un descuento de 50% para la crema
-                    para nuestros lectores&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span data-translate="90"&gt;La oferta es váli</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">da solo hoy&lt;/span&gt;&lt;span id="dadata"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt; .&lt;br&gt;&lt;br&gt;&lt;span data-translate="91"&gt;Mañana finalizará la oferta de la crema.&lt;/span&gt;&lt;br&gt; &lt;/p&gt;
+                recibimos&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="89"&gt;un descuento de 50% para la crema
+                    para nuestros lectores&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span data-translate="90"&gt;La oferta es válida solo hoy&lt;/span&gt;&lt;span id="dadata"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt; .&lt;br&gt;&lt;br&gt;&lt;span data-translate="91"&gt;Mañana finalizará la oferta de la crema.&lt;/span&gt;&lt;br&gt; &lt;/p&gt;
               &lt;div style="background-color: #dcdcdc;color: #212121;text-align: center;padding: 10px"&gt;
                 &lt;p style="font-size: 28px;line-height: 40px"&gt;&lt;span data-translate="92"&gt;ATENCIÓN: Unidades de crema con un descuento
                   restringidas:&lt;/span&gt;&lt;span style="color: red;text-decoration: underline"&gt;
                     &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira", "Sabado");
-                        var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Junho", "Julho", "Agosto", "Setembro", "Outubro", "Novembro", "Dezembro");
+                        var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Ju</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str" xml:space="preserve">
+        <v xml:space="preserve">nho", "Julho", "Agosto", "Setembro", "Outubro", "Novembro", "Dezembro");
                         var now = new Date();
                         document.write(now.getDate() + " de " + monthNames[now.getMonth()] + " de " + now.getFullYear());&lt;/script&gt;&lt;span data-translate="93"&gt;5 de julio de 2020&lt;/span&gt;&lt;/span&gt; &lt;/p&gt;
                 &lt;p style="font-size: 24px;margin-top: 50px;line-height: 30px"&gt;&lt;span data-translate="94"&gt;Pulse sobre la crema para tener un
-                  descuento de 50% para la crema Fortuflex (solo para nuestros lectores).&lt;/span&gt;&lt;/p&gt; &lt;a onclick="chamaCheckout()" href target="_blank"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="max-width: 500px"&gt; 
+                  descuento de 50% para la crema Fortuflex (solo para nuestros lectores).&lt;/span&gt;&lt;/p&gt; &lt;a href&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="max-width: 500px"&gt; 
                     &lt;div class="btn-green"&gt;
                       &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cta3.png" style="width: 95%;max-width: 500px"&gt;
                       &lt;span&gt;&lt;span data-translate="95"&gt;получите бесплатный образец&lt;/span&gt;&lt;/span&gt;
@@ -1419,19 +1420,19 @@
             &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
             &lt;/div&gt;
             &lt;div&gt;&lt;span data-translate="99"&gt;Comentarios de este artículo cerrados (17 comentarios).&lt;/span&gt;&lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve">-top-style: dashed; border-color: #333;margin-top: 20px;padding: 10px"&gt;
+            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 20px;padding: 10px"&gt;
               &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="100"&gt;Leonor:
               &lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="101"&gt;10/11/2019 a 12:27&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="102"&gt;Tenía dolores espantosos en todo el
                 cuerpo, sobre todo de articulaciones. El diagnóstico fue artritis. Me recetaron varios medicamentos,
                 pero nada ayudó. Solo gasté el dinero... Un día una amiga me contó de Fortuflex. Parece mentira, pero
-                empecé a tomarlo hace 10 días y ya no tengo más dolores.&lt;/span&gt;&lt;/div&gt;
+                empe</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str" xml:space="preserve">
+        <v xml:space="preserve">cé a tomarlo hace 10 días y ya no tengo más dolores.&lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
             &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
               &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p2.jpg"&gt;&lt;span data-translate="103"&gt;Ana:&lt;/span&gt;&lt;/div&gt;
@@ -1452,19 +1453,19 @@
               &lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
             &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./a</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">mostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="109"&gt;Raquel
+              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="109"&gt;Raquel
                 Baos:&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="110"&gt;10/11/2019 a 19:27&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="111"&gt;Siempre dormía muy mal por causa de
                 dolores de rodillas y articulaciones del hombro. Pero cuando empecé a aplicar Fortuflex, ya no tuve más
                 dolores, me siento 20 años más joven y por fin puedo dormir tranquilamente.&lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
               &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="112"&gt;María
                 Aparecida.&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="113"&gt;10/11/2019 a 7:21&lt;/span&gt;&lt;/div&gt;
@@ -1485,12 +1486,7 @@
               &lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
             &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div sty</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str" xml:space="preserve">
-        <v xml:space="preserve">le="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="119"&gt;Elena:
+              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="119"&gt;Elena:
               &lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="120"&gt;10/11/2019 a 13:51&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="121"&gt;Durante los últimos 20 años no hubo
@@ -1498,7 +1494,12 @@
                 de esta enfermedad. Fortuflex – es una crema que cambió mi vida, su eficacia ha sido comprobada para
                 curar osteoporosis.&lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+            &lt;div style="width: 100%;;  border-</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str" xml:space="preserve">
+        <v xml:space="preserve">width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
               &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p3.jpg"&gt;&lt;span data-translate="122"&gt;Amanda:&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="123"&gt;10/11/2019 a 16:44&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="124"&gt;Llevaba medio año durmiendo en el
@@ -1517,18 +1518,18 @@
                 mañana otra vez. Les estoy muy agradecida por su sonrisa.&lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
             &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str" xml:space="preserve">
-        <v xml:space="preserve">gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p1.jpg"&gt;&lt;span data-translate="128"&gt;Sofía:&lt;/span&gt;&lt;/div&gt;
+              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p1.jpg"&gt;&lt;span data-translate="128"&gt;Sofía:&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="129"&gt;10/11/2019 a 17:21&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="130"&gt;A causa de dolores constantes en
                 articulaciones del hombro no pude llevar a mi nieto en brazos cuando el mismo nació. Me sentía tan
                 desamparada. Luego una amiga me contó sobre esta crema recomendada por el doctor Drauzio dijo que ayuda
                 en caso de estos dolores, decidí probarla, y vi que realmente ayuda. Ya una semana mas tarde pude llevar
-                a mi nieto en brazos. ¡El momento más feliz de mi vida!&lt;/span&gt;&lt;/div&gt;
+                a mi nieto en brazos. ¡El momento más feliz</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str" xml:space="preserve">
+        <v xml:space="preserve"> de mi vida!&lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
             &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
               &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="131"&gt;Martina:
@@ -1549,12 +1550,7 @@
               &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p5.jpg"&gt;&lt;span data-translate="137"&gt;Ángela:&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="138"&gt;10/11/2019 a 12:20&lt;/span&gt;&lt;/div&gt;
               &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="139"&gt;Es un milagro, Absolue Flex superó
-                todas mis es</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str" xml:space="preserve">
-        <v xml:space="preserve">peranzas, lo entregaron rápido, ya no tengo más dolores, todo corresponde a lo prometido. Ya
+                todas mis esperanzas, lo entregaron rápido, ya no tengo más dolores, todo corresponde a lo prometido. Ya
                 no me duelen más las articulaciones de rodilla porque en el trabajo paso mucho tiempo de pie. Me gustó
                 todo, y el servicio es perfecto.&lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
@@ -1562,13 +1558,18 @@
         &lt;/div&gt;
         &lt;div style="background-color: #dcdcdc;color: #212121;text-align: center;padding: 10px;max-width: 700px"&gt;
           &lt;p style="font-size: 28px;line-height: 40px"&gt;&lt;span data-translate="140"&gt;ATENCIÓN: Unidades de crema con un descuento restringidas:&lt;/span&gt;&lt;span style="color: red;text-decoration: underline"&gt;
-              &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira", "Sabado");
+              &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira",</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str" xml:space="preserve">
+        <v xml:space="preserve"> "Sabado");
                   var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Junho", "Julho", "Agosto", "Setembro", "Outubro", "Novembro", "Dezembro");
                   var now = new Date();
                   document.write(now.getDate() + " de " + monthNames[now.getMonth()] + " de " + now.getFullYear());&lt;/script&gt;&lt;span data-translate="141"&gt;5
               de julio de 2020&lt;/span&gt;&lt;/span&gt; &lt;/p&gt;
           &lt;p style="font-size: 24px;margin-top: 50px;line-height: 30px"&gt;&lt;span data-translate="142"&gt;Pulse sobre la crema para tener un descuento de
-            50% para la crema Fortuflex (solo para nuestros lectores).&lt;/span&gt;&lt;/p&gt; &lt;a onclick="chamaCheckout()" href target="_blank"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="width: 95%;max-width: 400px"&gt;&lt;br&gt; 
+            50% para la crema Fortuflex (solo para nuestros lectores).&lt;/span&gt;&lt;/p&gt; &lt;a href&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="width: 95%;max-width: 400px"&gt;&lt;br&gt; 
               &lt;div class="btn-green"&gt;
                 &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cta3.png" style="width: 95%;max-width: 500px"&gt;
                 &lt;span&gt;&lt;span data-translate="143"&gt;получите бесплатный образец&lt;/span&gt;&lt;/span&gt;
@@ -1586,12 +1587,7 @@
         &lt;/div&gt;
       &lt;/article&gt;
       &lt;div class="about-author"&gt;
-        &lt;hr&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2.jpg" srcset="https://secure.gravatar.com/avatar/75d76e2cbd5e8a5bcd7f8d1a5f7caa</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str" xml:space="preserve">
-        <v xml:space="preserve">a2?s=192&amp;d=mm&amp;r=g 2x" class="avatar avatar-96 photo" height="96" width="96"&gt;
+        &lt;hr&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2.jpg" srcset="https://secure.gravatar.com/avatar/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2?s=192&amp;d=mm&amp;r=g 2x" class="avatar avatar-96 photo" height="96" width="96"&gt;
         &lt;h3 class="title"&gt;&lt;span data-translate="147"&gt;Sobre el autor: Joaquin Artesanos&lt;/span&gt;&lt;/h3&gt;
         &lt;div class="author-bio"&gt;&lt;span data-translate="148"&gt;Joaquin Artesanos es oncólogo y escritor. Uno de los pioneros de tratamiento del SIDA
           en España. &lt;/span&gt;&lt;/div&gt;
@@ -1603,9 +1599,14 @@
     &lt;div id="nav_menu-7" class="col-xs-7 widget_nav_menu"&gt;
       &lt;div class="menu-footer-container"&gt;
         &lt;ul id="menu-footer" class="menu"&gt;
-          &lt;li id="menu-item-36" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-36"&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="150"&gt;Información de contacto&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
-          &lt;li id="menu-item-49" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-49"&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="151"&gt;Requisitos de uso&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
-          &lt;li id="menu-item-35414" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-35414"&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="152"&gt;Política de privacidad&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
+          &lt;li id="menu-item-36" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-36"&gt;&lt;a href&gt;&lt;span data-translate="150"&gt;Información de co</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str" xml:space="preserve">
+        <v xml:space="preserve">ntacto&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
+          &lt;li id="menu-item-49" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-49"&gt;&lt;a href&gt;&lt;span data-translate="151"&gt;Requisitos de uso&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
+          &lt;li id="menu-item-35414" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-35414"&gt;&lt;a href&gt;&lt;span data-translate="152"&gt;Política de privacidad&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
         &lt;/ul&gt;
       &lt;/div&gt;
     &lt;/div&gt;
@@ -1676,12 +1677,7 @@
 &lt;/style&gt;
 &lt;script&gt;
   const btnWrappers = document.querySelectorAll('.btn-green');
-  const btns = document.</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str" xml:space="preserve">
-        <v xml:space="preserve">querySelectorAll('.btn-green img');
+  const btns = document.querySelectorAll('.btn-green img');
   window.addEventListener('load', () =&gt; {
     btns.forEach((btn, index) =&gt; {
       const btnHeight = getHeight(btn)
@@ -1702,7 +1698,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A13"/>
   </ignoredErrors>
 </worksheet>
 </file>